--- a/SimpCity US18 Test Document (3 Pass 0 Fail).xlsx
+++ b/SimpCity US18 Test Document (3 Pass 0 Fail).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huiyi\Downloads\Year 3-Poly\Sem 3.2 DevOps\Tesr Documents\Sprint 3 V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claris Toh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D5E809-9093-4534-AD6A-4C16180BB9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D61854-004D-428E-8664-4A8FD8A3B5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="3120" windowWidth="27930" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="US18 Sprint 3 " sheetId="20" r:id="rId1"/>
@@ -1088,44 +1088,44 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1707,8 +1707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E54C8C2-184B-44AE-8958-B9167F0679B7}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1728,10 +1728,10 @@
   <sheetData>
     <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="100"/>
+      <c r="C1" s="103"/>
       <c r="D1" s="39"/>
       <c r="E1" s="37"/>
       <c r="F1" s="41"/>
@@ -1744,24 +1744,24 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="102"/>
+      <c r="C2" s="100"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="101" t="s">
+      <c r="E2" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="102"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="17"/>
-      <c r="H2" s="102" t="s">
+      <c r="H2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="102"/>
-      <c r="J2" s="101" t="s">
+      <c r="I2" s="100"/>
+      <c r="J2" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="103"/>
+      <c r="K2" s="101"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1884,20 +1884,20 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="91"/>
+      <c r="C7" s="102"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="91"/>
+      <c r="F7" s="102"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="91" t="s">
+      <c r="H7" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="91"/>
+      <c r="I7" s="102"/>
       <c r="J7"/>
       <c r="L7" s="3"/>
     </row>
@@ -1936,7 +1936,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="64" t="s">
@@ -2028,20 +2028,20 @@
       </c>
     </row>
     <row r="14" spans="1:12" s="78" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="93">
+      <c r="A14" s="94">
         <v>1</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="92" t="s">
+      <c r="D14" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
       <c r="G14" s="76"/>
       <c r="H14" s="76"/>
       <c r="I14" s="76"/>
@@ -2049,19 +2049,19 @@
       <c r="K14" s="77"/>
     </row>
     <row r="15" spans="1:12" s="78" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="93"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="95"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="96"/>
       <c r="D15" s="79" t="s">
         <v>51</v>
       </c>
       <c r="E15" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="96" t="s">
+      <c r="F15" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="97" t="s">
+      <c r="G15" s="91" t="s">
         <v>38</v>
       </c>
       <c r="H15" s="77" t="s">
@@ -2089,8 +2089,8 @@
       <c r="E16" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="92"/>
       <c r="H16" s="77" t="s">
         <v>39</v>
       </c>
@@ -2118,8 +2118,8 @@
       <c r="E17" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="96"/>
-      <c r="G17" s="99"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="93"/>
       <c r="H17" s="77" t="s">
         <v>41</v>
       </c>
@@ -2159,26 +2159,26 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="102"/>
+      <c r="C20" s="100"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="101" t="s">
+      <c r="E20" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="102"/>
+      <c r="F20" s="100"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="102" t="s">
+      <c r="H20" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="102"/>
-      <c r="J20" s="101" t="s">
+      <c r="I20" s="100"/>
+      <c r="J20" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="103"/>
-    </row>
-    <row r="21" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="K20" s="101"/>
+    </row>
+    <row r="21" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="23" t="s">
         <v>5</v>
@@ -2294,20 +2294,20 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="91"/>
+      <c r="C25" s="102"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="91" t="s">
+      <c r="E25" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="91"/>
+      <c r="F25" s="102"/>
       <c r="G25" s="22"/>
-      <c r="H25" s="91" t="s">
+      <c r="H25" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="91"/>
+      <c r="I25" s="102"/>
       <c r="J25"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2433,20 +2433,20 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="93">
+      <c r="A32" s="94">
         <v>1</v>
       </c>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="95" t="s">
+      <c r="C32" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="92" t="s">
+      <c r="D32" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
       <c r="G32" s="89"/>
       <c r="H32" s="89"/>
       <c r="I32" s="89"/>
@@ -2454,19 +2454,19 @@
       <c r="K32" s="77"/>
     </row>
     <row r="33" spans="1:11" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="93"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="95"/>
+      <c r="A33" s="94"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="96"/>
       <c r="D33" s="79" t="s">
         <v>51</v>
       </c>
       <c r="E33" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="96" t="s">
+      <c r="F33" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="97" t="s">
+      <c r="G33" s="91" t="s">
         <v>38</v>
       </c>
       <c r="H33" s="77" t="s">
@@ -2494,8 +2494,8 @@
       <c r="E34" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="96"/>
-      <c r="G34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="92"/>
       <c r="H34" s="77" t="s">
         <v>39</v>
       </c>
@@ -2521,8 +2521,8 @@
       <c r="E35" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="96"/>
-      <c r="G35" s="99"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="93"/>
       <c r="H35" s="77" t="s">
         <v>41</v>
       </c>
@@ -2534,24 +2534,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="H7:I7"/>
@@ -2561,6 +2543,24 @@
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="G15:G17"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="F33:F35"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="3">
@@ -2581,18 +2581,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2819,6 +2819,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75B86C51-674E-46A9-B91E-9AE115031248}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A81CDD1-D526-48DF-9336-9FD2CC92C9AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2831,14 +2839,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="419b02cf-fcc9-4c00-8b4c-f2ca4cadfe65"/>
     <ds:schemaRef ds:uri="bb40eff7-1811-4d65-ad86-f961af2c0665"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75B86C51-674E-46A9-B91E-9AE115031248}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
